--- a/Test_interface.xlsx
+++ b/Test_interface.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
   <si>
     <t>4.1 - 5</t>
   </si>
@@ -50,7 +50,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>_</t>
+    <t>-</t>
   </si>
   <si>
     <t>Đã đăng nhập</t>
@@ -123,7 +123,22 @@
     <t>Mở thanh tìm kiếm</t>
   </si>
   <si>
+    <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Nhập đúng tên sách</t>
+  </si>
+  <si>
+    <t>Nhập sai tên sách</t>
+  </si>
+  <si>
     <t>Trả về danh sách cần tìm kiếm</t>
+  </si>
+  <si>
+    <t>Không trả về danh sách sách</t>
+  </si>
+  <si>
+    <t>Trả về false với SQL Injection</t>
   </si>
 </sst>
 </file>
@@ -160,7 +175,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,24 +501,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,19 +517,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,19 +642,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,7 +663,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,34 +675,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,15 +753,27 @@
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,23 +783,11 @@
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,13 +820,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,15 +1166,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="13.3240740740741" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1506,48 +1523,48 @@
       <c r="E28" s="3"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1577,19 +1594,20 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
@@ -1609,86 +1627,230 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="1" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" ht="29" customHeight="1" spans="1:8">
-      <c r="A42" s="5" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" ht="21" customHeight="1" spans="1:9">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="1:9">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:9">
+      <c r="A45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="7" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="G48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="62">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:E2"/>
@@ -1717,25 +1879,30 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C36:I36"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F48:F49"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G48:G49"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A22:D23"/>
     <mergeCell ref="A19:B21"/>
@@ -1743,8 +1910,9 @@
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="A33:D34"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A45:B47"/>
+    <mergeCell ref="A40:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
